--- a/files/students.xlsx
+++ b/files/students.xlsx
@@ -27,27 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
   <si>
-    <t>123-D</t>
+    <t>Group-3</t>
   </si>
   <si>
-    <t>124-D</t>
+    <t>Group-4</t>
   </si>
   <si>
-    <t>125-D</t>
-  </si>
-  <si>
-    <t>126-D</t>
-  </si>
-  <si>
-    <t>127-D</t>
-  </si>
-  <si>
-    <t>128-D</t>
-  </si>
-  <si>
-    <t>129-D</t>
+    <t>Group-5</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1195,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1223,7 +1211,7 @@
         <v>7.7</v>
       </c>
       <c r="C1">
-        <v>12345</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1234,7 +1222,7 @@
         <v>8.7</v>
       </c>
       <c r="C2">
-        <v>12346</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1245,62 +1233,54 @@
         <v>9.7</v>
       </c>
       <c r="C3">
-        <v>12347</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
         <v>10</v>
       </c>
       <c r="C4">
-        <v>12348</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>1.7</v>
       </c>
       <c r="C5">
-        <v>12349</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>5.7</v>
       </c>
       <c r="C6">
-        <v>12350</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
         <v>9.9</v>
       </c>
       <c r="C7">
-        <v>12351</v>
+        <v>1240</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="12346"/>
-    <hyperlink ref="C3" r:id="rId2" display="12347"/>
-    <hyperlink ref="C4" r:id="rId3" display="12348"/>
-    <hyperlink ref="C5" r:id="rId4" display="12349"/>
-    <hyperlink ref="C6" r:id="rId5" display="12350"/>
-    <hyperlink ref="C7" r:id="rId6" display="12351"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
